--- a/data/init/terrain_point.xlsx
+++ b/data/init/terrain_point.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UIUCclass\23SP\IS597PR\FinalProj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UIUCclass\23SP\IS597PR\FinalProj\2023Spr_projects_catan_simulation\data\init\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68543CCC-A3FC-4BBD-93F5-B001C58B9E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3259152-59FE-4467-A84A-74B4F554CFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3825" yWindow="2820" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -361,8 +361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
